--- a/Ridesharing-Social-Network/Experiment-result.xlsx
+++ b/Ridesharing-Social-Network/Experiment-result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ender\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Program\Cargo-impl\Ridesharing-Social-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9714FC91-107E-4026-B1B2-326ADAAFF682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9292796D-5F7E-434C-AC7C-A079E5CD57CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{2CE81BC6-CCFB-415A-9DC7-6A2146B25886}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{2CE81BC6-CCFB-415A-9DC7-6A2146B25886}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>bilateral+</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,11 +100,26 @@
     <t>with social network</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>base_dist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel_dist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,11 +159,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,6 +1229,424 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Utility Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>penalty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>bilateral+</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bilateral_arrangement</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grabby</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>greedy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>kinetic_tree</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nearest_neighbor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>grasp4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>grasp16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sa50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sa100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nearest_road</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.549478500945856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7219352117873425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8690989316282964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5334939206239966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7718924531003868</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8908713467748504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0297900116660186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6884753439218647</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0160789890436641</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5545826476848985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9713240451663481</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE83-4785-BE0B-CC8716C73676}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="765065791"/>
+        <c:axId val="694025519"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="765065791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694025519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694025519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765065791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1291,6 +1727,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1795,6 +2271,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2302,15 +3281,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2366,6 +3345,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D4B277-DB53-418B-9340-9B815B6F212E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2671,13 +3686,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55038A77-F113-483E-AC29-932B6A859934}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -2833,47 +3852,47 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <f>B3/B2</f>
+        <f t="shared" ref="B5:L5" si="0">B3/B2</f>
         <v>0.41799999999999998</v>
       </c>
       <c r="C5" s="1">
-        <f>C3/C2</f>
+        <f t="shared" si="0"/>
         <v>0.41399999999999998</v>
       </c>
       <c r="D5" s="1">
-        <f>D3/D2</f>
+        <f t="shared" si="0"/>
         <v>0.52700000000000002</v>
       </c>
       <c r="E5" s="1">
-        <f>E3/E2</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="F5" s="1">
-        <f>F3/F2</f>
+        <f t="shared" si="0"/>
         <v>0.311</v>
       </c>
       <c r="G5" s="1">
-        <f>G3/G2</f>
+        <f t="shared" si="0"/>
         <v>0.495</v>
       </c>
       <c r="H5" s="1">
-        <f>H3/H2</f>
+        <f t="shared" si="0"/>
         <v>0.35099999999999998</v>
       </c>
       <c r="I5" s="1">
-        <f>I3/I2</f>
+        <f t="shared" si="0"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="J5" s="1">
-        <f>J3/J2</f>
+        <f t="shared" si="0"/>
         <v>0.41199999999999998</v>
       </c>
       <c r="K5" s="1">
-        <f>K3/K2</f>
+        <f t="shared" si="0"/>
         <v>0.42499999999999999</v>
       </c>
       <c r="L5" s="1">
-        <f>L3/L2</f>
+        <f t="shared" si="0"/>
         <v>0.49299999999999999</v>
       </c>
     </row>
@@ -2882,47 +3901,47 @@
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <f>B4/B2</f>
+        <f t="shared" ref="B6:L6" si="1">B4/B2</f>
         <v>0.41799999999999998</v>
       </c>
       <c r="C6" s="1">
-        <f>C4/C2</f>
+        <f t="shared" si="1"/>
         <v>0.42299999999999999</v>
       </c>
       <c r="D6" s="1">
-        <f>D4/D2</f>
+        <f t="shared" si="1"/>
         <v>0.499</v>
       </c>
       <c r="E6" s="1">
-        <f>E4/E2</f>
+        <f t="shared" si="1"/>
         <v>0.34899999999999998</v>
       </c>
       <c r="F6" s="1">
-        <f>F4/F2</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="G6" s="1">
-        <f>G4/G2</f>
+        <f t="shared" si="1"/>
         <v>0.50700000000000001</v>
       </c>
       <c r="H6" s="1">
-        <f>H4/H2</f>
+        <f t="shared" si="1"/>
         <v>0.35399999999999998</v>
       </c>
       <c r="I6" s="1">
-        <f>I4/I2</f>
+        <f t="shared" si="1"/>
         <v>0.33900000000000002</v>
       </c>
       <c r="J6" s="1">
-        <f>J4/J2</f>
+        <f t="shared" si="1"/>
         <v>0.43</v>
       </c>
       <c r="K6" s="1">
-        <f>K4/K2</f>
+        <f t="shared" si="1"/>
         <v>0.441</v>
       </c>
       <c r="L6" s="1">
-        <f>L4/L2</f>
+        <f t="shared" si="1"/>
         <v>0.496</v>
       </c>
     </row>
@@ -2935,44 +3954,169 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:L7" si="0">(C5-C6)/C5</f>
+        <f t="shared" ref="C7:L7" si="2">(C5-C6)/C5</f>
         <v>-2.1739130434782629E-2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.3130929791271389E-2</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8571428571428597E-3</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5369774919614176E-2</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.4242424242424263E-2</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-8.5470085470085548E-3</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7391304347825941E-2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.3689320388349558E-2</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.7647058823529443E-2</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-6.0851926977687678E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>2605014</v>
+      </c>
+      <c r="C8">
+        <v>2605014</v>
+      </c>
+      <c r="D8">
+        <v>2605014</v>
+      </c>
+      <c r="E8">
+        <v>2605014</v>
+      </c>
+      <c r="F8">
+        <v>2605014</v>
+      </c>
+      <c r="G8">
+        <v>2605014</v>
+      </c>
+      <c r="H8">
+        <v>2605014</v>
+      </c>
+      <c r="I8">
+        <v>2605014</v>
+      </c>
+      <c r="J8">
+        <v>2605014</v>
+      </c>
+      <c r="K8">
+        <v>2605014</v>
+      </c>
+      <c r="L8">
+        <v>2605014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>469416</v>
+      </c>
+      <c r="C9">
+        <v>455268</v>
+      </c>
+      <c r="D9">
+        <v>293718</v>
+      </c>
+      <c r="E9">
+        <v>470772</v>
+      </c>
+      <c r="F9">
+        <v>335184</v>
+      </c>
+      <c r="G9">
+        <v>442212</v>
+      </c>
+      <c r="H9">
+        <v>432024</v>
+      </c>
+      <c r="I9">
+        <v>389478</v>
+      </c>
+      <c r="J9">
+        <v>371292</v>
+      </c>
+      <c r="K9">
+        <v>397434</v>
+      </c>
+      <c r="L9">
+        <v>436254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <f>(B8-B9)/B9</f>
+        <v>4.549478500945856</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" ref="C10:L10" si="3">(C8-C9)/C9</f>
+        <v>4.7219352117873425</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="3"/>
+        <v>7.8690989316282964</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
+        <v>4.5334939206239966</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
+        <v>6.7718924531003868</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>4.8908713467748504</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0297900116660186</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>5.6884753439218647</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>6.0160789890436641</v>
+      </c>
+      <c r="K10" s="2">
+        <f>(K8-K9)/K9</f>
+        <v>5.5545826476848985</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
+        <v>4.9713240451663481</v>
       </c>
     </row>
   </sheetData>
